--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H2">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.293362666666667</v>
+        <v>2.423077</v>
       </c>
       <c r="N2">
-        <v>3.880088</v>
+        <v>7.269231</v>
       </c>
       <c r="O2">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="P2">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="Q2">
-        <v>0.8890281808462223</v>
+        <v>4.191432940753667</v>
       </c>
       <c r="R2">
-        <v>8.001253627616</v>
+        <v>37.72289646678301</v>
       </c>
       <c r="S2">
-        <v>0.0005689962612895101</v>
+        <v>0.002531270771335058</v>
       </c>
       <c r="T2">
-        <v>0.00056899626128951</v>
+        <v>0.002531270771335058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H3">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>48.2731</v>
       </c>
       <c r="O3">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="P3">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="Q3">
-        <v>11.06061158324444</v>
+        <v>27.83423191425556</v>
       </c>
       <c r="R3">
-        <v>99.54550424920001</v>
+        <v>250.5080872283</v>
       </c>
       <c r="S3">
-        <v>0.007079018161664026</v>
+        <v>0.01680952043919562</v>
       </c>
       <c r="T3">
-        <v>0.007079018161664025</v>
+        <v>0.01680952043919562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H4">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>129.30162</v>
       </c>
       <c r="O4">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="P4">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="Q4">
-        <v>29.62633425042667</v>
+        <v>74.55521352407335</v>
       </c>
       <c r="R4">
-        <v>266.6370082538401</v>
+        <v>670.9969217166602</v>
       </c>
       <c r="S4">
-        <v>0.01896146127579502</v>
+        <v>0.04502503929126377</v>
       </c>
       <c r="T4">
-        <v>0.01896146127579502</v>
+        <v>0.04502503929126377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J5">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.293362666666667</v>
+        <v>2.423077</v>
       </c>
       <c r="N5">
-        <v>3.880088</v>
+        <v>7.269231</v>
       </c>
       <c r="O5">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="P5">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="Q5">
-        <v>7.648926979105778</v>
+        <v>14.33004022415266</v>
       </c>
       <c r="R5">
-        <v>68.840342811952</v>
+        <v>128.970362017374</v>
       </c>
       <c r="S5">
-        <v>0.004895470073676403</v>
+        <v>0.008654131530714886</v>
       </c>
       <c r="T5">
-        <v>0.004895470073676402</v>
+        <v>0.008654131530714886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J6">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>48.2731</v>
       </c>
       <c r="O6">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="P6">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="Q6">
         <v>95.16212440415555</v>
@@ -818,10 +818,10 @@
         <v>856.4591196374</v>
       </c>
       <c r="S6">
-        <v>0.06090571049254253</v>
+        <v>0.0574698694807405</v>
       </c>
       <c r="T6">
-        <v>0.06090571049254252</v>
+        <v>0.0574698694807405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J7">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>129.30162</v>
       </c>
       <c r="O7">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="P7">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="Q7">
         <v>254.8959326850534</v>
@@ -880,10 +880,10 @@
         <v>2294.06339416548</v>
       </c>
       <c r="S7">
-        <v>0.1631386224198725</v>
+        <v>0.1539355712611849</v>
       </c>
       <c r="T7">
-        <v>0.1631386224198725</v>
+        <v>0.1539355712611849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I8">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J8">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.293362666666667</v>
+        <v>2.423077</v>
       </c>
       <c r="N8">
-        <v>3.880088</v>
+        <v>7.269231</v>
       </c>
       <c r="O8">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="P8">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="Q8">
-        <v>24.87225520687733</v>
+        <v>46.59744021005299</v>
       </c>
       <c r="R8">
-        <v>223.850296861896</v>
+        <v>419.3769618904769</v>
       </c>
       <c r="S8">
-        <v>0.01591875322678855</v>
+        <v>0.02814091030203414</v>
       </c>
       <c r="T8">
-        <v>0.01591875322678854</v>
+        <v>0.02814091030203414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I9">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J9">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>48.2731</v>
       </c>
       <c r="O9">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="P9">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="Q9">
-        <v>309.4416577219667</v>
+        <v>309.4416577219666</v>
       </c>
       <c r="R9">
         <v>2784.9749194977</v>
       </c>
       <c r="S9">
-        <v>0.1980490046597104</v>
+        <v>0.1868765729278825</v>
       </c>
       <c r="T9">
-        <v>0.1980490046597103</v>
+        <v>0.1868765729278825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I10">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J10">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>129.30162</v>
       </c>
       <c r="O10">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="P10">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="Q10">
-        <v>828.8530804720601</v>
+        <v>828.85308047206</v>
       </c>
       <c r="R10">
-        <v>7459.677724248542</v>
+        <v>7459.67772424854</v>
       </c>
       <c r="S10">
-        <v>0.5304829634286612</v>
+        <v>0.5005571139956487</v>
       </c>
       <c r="T10">
-        <v>0.5304829634286611</v>
+        <v>0.5005571139956487</v>
       </c>
     </row>
   </sheetData>
